--- a/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
@@ -4,19 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="数据容器定义" sheetId="4" r:id="rId1"/>
     <sheet name="数据实体定义" sheetId="1" r:id="rId2"/>
     <sheet name="字段_UV实时数据" sheetId="2" r:id="rId3"/>
+    <sheet name="字段_UV历史数据" sheetId="5" r:id="rId4"/>
+    <sheet name="字段_PV历史数据" sheetId="6" r:id="rId5"/>
+    <sheet name="字段_楼层L1实时数据" sheetId="7" r:id="rId6"/>
+    <sheet name="字段_楼层L2实时数据" sheetId="8" r:id="rId7"/>
+    <sheet name="字段_楼层B1实时数据" sheetId="9" r:id="rId8"/>
+    <sheet name="字段_楼层L1历史数据" sheetId="10" r:id="rId9"/>
+    <sheet name="字段_楼层L2历史数据" sheetId="11" r:id="rId10"/>
+    <sheet name="字段_楼层B1历史数据" sheetId="12" r:id="rId11"/>
+    <sheet name="字段_门店历史进店客流" sheetId="13" r:id="rId12"/>
+    <sheet name="字段_门店历史过店客流" sheetId="14" r:id="rId13"/>
+    <sheet name="字段_门店历史进店PV" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="48">
   <si>
     <t>名字</t>
   </si>
@@ -37,9 +48,9 @@
   </si>
   <si>
     <t>{
-    "endPoint":"https://scenario.cn-beijing.ots.aliyuncs.com",
-    "accessKeyId":"LTAI5t8wVqrm9pfHZswwRok1",
-    "accessKeySecret":"O1DToNZRCeRxVdVewpuJrg4sPKojHe",
+    "endPoint":"http://oss-cn-hangzhou-zmf.aliyuncs.com",
+    "accessKeyId":"LTAIEo1SdXaf4mdh",
+    "accessKeySecret":"9HysESjHRS7IWzLZ3b66Nj6thgXdS8",
 }</t>
   </si>
   <si>
@@ -70,15 +81,54 @@
     <t>UV实时数据</t>
   </si>
   <si>
-    <t>scenario/who_person_record</t>
-  </si>
-  <si>
-    <t>["scope_date","request_id"]</t>
+    <t>scenario-online/who_person_record</t>
+  </si>
+  <si>
+    <t>["scope_date","request_id"</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>UV历史数据</t>
+  </si>
+  <si>
+    <t>scenario-online/who_person_record_bak</t>
+  </si>
+  <si>
+    <t>["scope_date","to_user","from_user","type"]</t>
+  </si>
+  <si>
+    <t>PV历史数据</t>
+  </si>
+  <si>
+    <t>楼层L1实时数据</t>
+  </si>
+  <si>
+    <t>楼层L2实时数据</t>
+  </si>
+  <si>
+    <t>楼层B1实时数据</t>
+  </si>
+  <si>
+    <t>楼层L1历史数据</t>
+  </si>
+  <si>
+    <t>楼层L2历史数据</t>
+  </si>
+  <si>
+    <t>楼层B1历史数据</t>
+  </si>
+  <si>
+    <t>门店历史进店客流</t>
+  </si>
+  <si>
+    <t>门店历史过店客流</t>
+  </si>
+  <si>
+    <t>门店历史进店PV</t>
+  </si>
+  <si>
     <t>字段</t>
   </si>
   <si>
@@ -94,7 +144,7 @@
     <t>char</t>
   </si>
   <si>
-    <t>[33489,33468]</t>
+    <t>[33468]</t>
   </si>
   <si>
     <t>status</t>
@@ -107,6 +157,24 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>[33489]</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>[33469]</t>
+  </si>
+  <si>
+    <t>[33480]</t>
+  </si>
+  <si>
+    <t>[33515]</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -115,8 +183,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -136,7 +204,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,11 +233,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,54 +286,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,8 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,28 +326,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -287,187 +355,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,8 +567,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,65 +639,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -593,6 +652,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,137 +681,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +826,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1145,11 +1216,391 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1161,13 +1612,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="28.1818181818182" customWidth="1"/>
@@ -1212,7 +1663,7 @@
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1222,34 +1673,202 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1261,10 +1880,170 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>LOWER(D4)</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1275,62 +2054,366 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="11" activeTab="13"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数据容器定义" sheetId="4" r:id="rId1"/>
     <sheet name="数据实体定义" sheetId="1" r:id="rId2"/>
     <sheet name="字段_UV实时数据" sheetId="2" r:id="rId3"/>
-    <sheet name="字段_UV历史数据" sheetId="5" r:id="rId4"/>
+    <sheet name="字段_UV历史数据" sheetId="16" r:id="rId4"/>
     <sheet name="字段_PV历史数据" sheetId="6" r:id="rId5"/>
     <sheet name="字段_楼层L1实时数据" sheetId="7" r:id="rId6"/>
     <sheet name="字段_楼层L2实时数据" sheetId="8" r:id="rId7"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="48">
   <si>
     <t>名字</t>
   </si>
@@ -159,16 +159,16 @@
     <t>false</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>[33469]</t>
+  </si>
+  <si>
+    <t>[33480]</t>
+  </si>
+  <si>
     <t>[33489]</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>[33469]</t>
-  </si>
-  <si>
-    <t>[33480]</t>
   </si>
   <si>
     <t>[33515]</t>
@@ -183,8 +183,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -204,38 +204,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,23 +246,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,9 +264,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,9 +278,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,29 +327,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,181 +355,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,11 +564,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,10 +607,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -603,22 +618,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,26 +653,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,7 +1271,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
@@ -1347,7 +1347,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
@@ -1538,8 +1538,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1600,7 +1600,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1883,7 +1883,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1960,90 +1960,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>LOWER(D4)</f>
-        <v>false</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -2079,7 +1999,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
@@ -2104,7 +2024,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2113,13 +2033,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -2155,7 +2075,83 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
@@ -2232,7 +2228,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
@@ -2308,7 +2304,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
@@ -2384,7 +2380,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JetBrains\IntelliJ IDEAProjects\interface-test-framework\src\main\java\com\haisheng\framework\testng\bigScreen\crm\wm\base\datacheck\rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5CFE53-A9C4-474B-BADE-8E60802BDFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D68B6D-0581-4D35-82E2-FF3122EC60B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1512" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37680" yWindow="2565" windowWidth="17280" windowHeight="8970" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据容器定义" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="48">
   <si>
     <t>名字</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>大小</t>
-  </si>
-  <si>
-    <t>UV实时数据</t>
   </si>
   <si>
     <t>scenario-online/who_person_record</t>
@@ -179,6 +176,14 @@
   </si>
   <si>
     <t>[scope_date,request_id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scenario-online/who_person_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV实时数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +590,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -618,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -649,55 +654,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -724,55 +729,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -799,55 +804,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -874,55 +879,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -935,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -949,55 +954,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1010,14 +1015,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="42.21875" customWidth="1"/>
   </cols>
@@ -1049,18 +1055,18 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1068,17 +1074,17 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1086,17 +1092,17 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1104,17 +1110,17 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1122,17 +1128,17 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1140,17 +1146,17 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1158,17 +1164,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1176,17 +1182,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1194,17 +1200,17 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1212,17 +1218,17 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1230,17 +1236,17 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1248,17 +1254,17 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1289,55 +1295,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1368,55 +1374,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1443,55 +1449,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1518,56 +1524,56 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1594,55 +1600,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1669,55 +1675,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1744,55 +1750,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JetBrains\IntelliJ IDEAProjects\interface-test-framework\src\main\java\com\haisheng\framework\testng\bigScreen\crm\wm\base\datacheck\rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D68B6D-0581-4D35-82E2-FF3122EC60B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB88A2D-F808-4AF8-AF4A-7AF54DA9DF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37680" yWindow="2565" windowWidth="17280" windowHeight="8970" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据容器定义" sheetId="4" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="字段_门店历史进店客流" sheetId="13" r:id="rId12"/>
     <sheet name="字段_门店历史过店客流" sheetId="14" r:id="rId13"/>
     <sheet name="字段_门店历史进店PV" sheetId="15" r:id="rId14"/>
+    <sheet name="字段_离场人数" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="48">
   <si>
     <t>名字</t>
   </si>
@@ -51,117 +52,6 @@
   </si>
   <si>
     <t>table_store</t>
-  </si>
-  <si>
-    <t>要校验的数据路径</t>
-  </si>
-  <si>
-    <t>数据源</t>
-  </si>
-  <si>
-    <t>数据源路径</t>
-  </si>
-  <si>
-    <t>所属容器</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>允许为空</t>
-  </si>
-  <si>
-    <t>行数</t>
-  </si>
-  <si>
-    <t>大小</t>
-  </si>
-  <si>
-    <t>scenario-online/who_person_record</t>
-  </si>
-  <si>
-    <t>UV历史数据</t>
-  </si>
-  <si>
-    <t>scenario-online/who_person_record_bak</t>
-  </si>
-  <si>
-    <t>PV历史数据</t>
-  </si>
-  <si>
-    <t>楼层L1实时数据</t>
-  </si>
-  <si>
-    <t>楼层L2实时数据</t>
-  </si>
-  <si>
-    <t>楼层B1实时数据</t>
-  </si>
-  <si>
-    <t>楼层L1历史数据</t>
-  </si>
-  <si>
-    <t>楼层L2历史数据</t>
-  </si>
-  <si>
-    <t>楼层B1历史数据</t>
-  </si>
-  <si>
-    <t>门店历史进店客流</t>
-  </si>
-  <si>
-    <t>门店历史过店客流</t>
-  </si>
-  <si>
-    <t>门店历史进店PV</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>值域</t>
-  </si>
-  <si>
-    <t>允许重复</t>
-  </si>
-  <si>
-    <t>region_id</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>[33468]</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>ENTER</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>[33469]</t>
-  </si>
-  <si>
-    <t>[33480]</t>
-  </si>
-  <si>
-    <t>[33489]</t>
-  </si>
-  <si>
-    <t>[33515]</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>{
@@ -169,21 +59,129 @@
     "accessKeyId":"LTAI5t8wVqrm9pfHZswwRok1",
     "accessKeySecret":"O1DToNZRCeRxVdVewpuJrg4sPKojHe",
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要校验的数据路径</t>
+  </si>
+  <si>
+    <t>数据源</t>
+  </si>
+  <si>
+    <t>数据源路径</t>
+  </si>
+  <si>
+    <t>所属容器</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>允许为空</t>
+  </si>
+  <si>
+    <t>行数</t>
+  </si>
+  <si>
+    <t>大小</t>
+  </si>
+  <si>
+    <t>UV实时数据</t>
+  </si>
+  <si>
+    <t>scenario-online/who_person_record</t>
   </si>
   <si>
     <t>[scope_date,request_id]</t>
   </si>
   <si>
-    <t>[scope_date,request_id]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scenario-online/who_person_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UV实时数据</t>
+    <t>UV历史数据</t>
+  </si>
+  <si>
+    <t>scenario-online/who_person_record_bak</t>
+  </si>
+  <si>
+    <t>PV历史数据</t>
+  </si>
+  <si>
+    <t>楼层L1实时数据</t>
+  </si>
+  <si>
+    <t>楼层L2实时数据</t>
+  </si>
+  <si>
+    <t>楼层B1实时数据</t>
+  </si>
+  <si>
+    <t>楼层L1历史数据</t>
+  </si>
+  <si>
+    <t>楼层L2历史数据</t>
+  </si>
+  <si>
+    <t>楼层B1历史数据</t>
+  </si>
+  <si>
+    <t>门店历史进店客流</t>
+  </si>
+  <si>
+    <t>门店历史过店客流</t>
+  </si>
+  <si>
+    <t>门店历史进店PV</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>值域</t>
+  </si>
+  <si>
+    <t>允许重复</t>
+  </si>
+  <si>
+    <t>region_id</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>[33468]</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>ENTER</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>[33469]</t>
+  </si>
+  <si>
+    <t>[33480]</t>
+  </si>
+  <si>
+    <t>[33489]</t>
+  </si>
+  <si>
+    <t>[33515]</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>LEAVE</t>
+  </si>
+  <si>
+    <t>离场人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +200,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -258,7 +255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,13 +268,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -622,17 +622,17 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>43</v>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -654,55 +654,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -729,55 +729,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -804,55 +804,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -879,55 +879,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -954,55 +954,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1011,12 +1011,85 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964F2C3-D7D7-4A1B-9E10-FA7E4318D50B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1030,245 +1103,263 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1282,7 +1373,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1295,55 +1386,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1374,55 +1465,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1449,55 +1540,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1524,56 +1615,56 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1600,55 +1691,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1675,55 +1766,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1828,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1750,55 +1841,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JetBrains\IntelliJ IDEAProjects\interface-test-framework\src\main\java\com\haisheng\framework\testng\bigScreen\crm\wm\base\datacheck\rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB88A2D-F808-4AF8-AF4A-7AF54DA9DF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85190634-C3D2-48E7-93CE-96F2E468813F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据容器定义" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="字段_门店历史进店客流" sheetId="13" r:id="rId12"/>
     <sheet name="字段_门店历史过店客流" sheetId="14" r:id="rId13"/>
     <sheet name="字段_门店历史进店PV" sheetId="15" r:id="rId14"/>
-    <sheet name="字段_离场人数" sheetId="18" r:id="rId15"/>
+    <sheet name="字段_实时离场人数" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -181,7 +181,7 @@
     <t>LEAVE</t>
   </si>
   <si>
-    <t>离场人数</t>
+    <t>实时离场人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964F2C3-D7D7-4A1B-9E10-FA7E4318D50B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JetBrains\IntelliJ IDEAProjects\interface-test-framework\src\main\java\com\haisheng\framework\testng\bigScreen\crm\wm\base\datacheck\rule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85190634-C3D2-48E7-93CE-96F2E468813F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28130" windowHeight="12530" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="数据容器定义" sheetId="4" r:id="rId1"/>
@@ -28,13 +22,16 @@
     <sheet name="字段_门店历史过店客流" sheetId="14" r:id="rId13"/>
     <sheet name="字段_门店历史进店PV" sheetId="15" r:id="rId14"/>
     <sheet name="字段_实时离场人数" sheetId="18" r:id="rId15"/>
+    <sheet name="字段_L1实时离场人数" sheetId="19" r:id="rId16"/>
+    <sheet name="字段_L2实时离场人数" sheetId="20" r:id="rId17"/>
+    <sheet name="字段_B1实时离场人数" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="51">
   <si>
     <t>名字</t>
   </si>
@@ -130,6 +127,18 @@
     <t>门店历史进店PV</t>
   </si>
   <si>
+    <t>实时离场人数</t>
+  </si>
+  <si>
+    <t>L1实时离场人数</t>
+  </si>
+  <si>
+    <t>L2实时离场人数</t>
+  </si>
+  <si>
+    <t>B1实时离场人数</t>
+  </si>
+  <si>
     <t>字段</t>
   </si>
   <si>
@@ -179,17 +188,19 @@
   </si>
   <si>
     <t>LEAVE</t>
-  </si>
-  <si>
-    <t>实时离场人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,21 +209,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +366,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -249,13 +576,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,21 +849,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -581,27 +1191,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="64.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.1090909090909" customWidth="1"/>
+    <col min="2" max="2" width="29.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="64.7818181818182" customWidth="1"/>
+    <col min="4" max="4" width="20.7818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="2" ht="70" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -630,446 +1240,674 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964F2C3-D7D7-4A1B-9E10-FA7E4318D50B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="14.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="11.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="14.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="11.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="14.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="11.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="11.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1079,29 +1917,30 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="42.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.7818181818182" customWidth="1"/>
+    <col min="2" max="2" width="44.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="25.2181818181818" customWidth="1"/>
+    <col min="4" max="4" width="19.7818181818182" customWidth="1"/>
+    <col min="5" max="5" width="42.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1145,7 +1984,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1163,7 +2002,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1181,7 +2020,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1199,7 +2038,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1217,7 +2056,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -1235,7 +2074,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1253,7 +2092,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1271,7 +2110,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
@@ -1289,7 +2128,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1307,7 +2146,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -1325,7 +2164,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -1343,9 +2182,9 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>47</v>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>16</v>
@@ -1361,539 +2200,600 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
       <c r="D5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/crm/wm/base/datacheck/rule/规则表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28130" windowHeight="12530" firstSheet="12" activeTab="17"/>
+    <workbookView windowWidth="28130" windowHeight="12530" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="数据容器定义" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="字段_门店历史进店客流" sheetId="13" r:id="rId12"/>
     <sheet name="字段_门店历史过店客流" sheetId="14" r:id="rId13"/>
     <sheet name="字段_门店历史进店PV" sheetId="15" r:id="rId14"/>
-    <sheet name="字段_实时离场人数" sheetId="18" r:id="rId15"/>
+    <sheet name="字段_全场实时离场人数" sheetId="18" r:id="rId15"/>
     <sheet name="字段_L1实时离场人数" sheetId="19" r:id="rId16"/>
     <sheet name="字段_L2实时离场人数" sheetId="20" r:id="rId17"/>
     <sheet name="字段_B1实时离场人数" sheetId="21" r:id="rId18"/>
@@ -127,7 +127,7 @@
     <t>门店历史进店PV</t>
   </si>
   <si>
-    <t>实时离场人数</t>
+    <t>全场实时离场人数</t>
   </si>
   <si>
     <t>L1实时离场人数</t>
@@ -195,9 +195,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -209,8 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,29 +219,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,15 +232,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,14 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -333,14 +332,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,19 +368,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,13 +482,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,145 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,6 +578,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -594,41 +618,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,20 +649,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,7 +685,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,133 +694,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1631,8 +1631,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1853,7 +1853,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1928,7 +1928,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
